--- a/biology/Botanique/Liste_de_Tracheophyta_de_Bosnie-Herzégovine/Liste_de_Tracheophyta_de_Bosnie-Herzégovine.xlsx
+++ b/biology/Botanique/Liste_de_Tracheophyta_de_Bosnie-Herzégovine/Liste_de_Tracheophyta_de_Bosnie-Herzégovine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_Tracheophyta_de_Bosnie-Herz%C3%A9govine</t>
+          <t>Liste_de_Tracheophyta_de_Bosnie-Herzégovine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette liste de Tracheophyta de Bosnie-Herzégovine, ainsi que d’espèces introduites est un aperçu incomplet d’espèces de mousses, de fougères, de gymnospermes et d’angiospermes citées dans la littérature disponible en langues bosniaque, croate, serbe et serbo-croate. Cet aperçu n’inclue pas des espèces cultivées ni celles occasionnellement introduites[1],[2],[3],[4],[5],[6],[7],[8],[9],[10],[11],[12],[13],[14],[15],[16],[17],[18],[19],[20],[21],[22],[23],[24],[25],[26].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette liste de Tracheophyta de Bosnie-Herzégovine, ainsi que d’espèces introduites est un aperçu incomplet d’espèces de mousses, de fougères, de gymnospermes et d’angiospermes citées dans la littérature disponible en langues bosniaque, croate, serbe et serbo-croate. Cet aperçu n’inclue pas des espèces cultivées ni celles occasionnellement introduites.
 Remarque : en raison de changements répétés dans la classification biologique et/ou taxonomique (rangs et noms des taxons inclus), certaines espèces apparaissent deux fois dans la liste. Cela est particulièrement vrai pour ces noms de la nomenclature binomiale, encore largement utilisées aujourd'hui. Le nom du genre et de la famille sont le plus souvent changés, et parfois aussi les noms d’espèces. 
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_Tracheophyta_de_Bosnie-Herz%C3%A9govine</t>
+          <t>Liste_de_Tracheophyta_de_Bosnie-Herzégovine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_Tracheophyta_de_Bosnie-Herz%C3%A9govine</t>
+          <t>Liste_de_Tracheophyta_de_Bosnie-Herzégovine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,114 +549,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Polypodiophyta</t>
+          <t>Cvjetnice</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A
-B
-C
-D
-E
-G
-H
-I
-L
-M
-N
-O
-P
-S
-T</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_de_Tracheophyta_de_Bosnie-Herz%C3%A9govine</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_Tracheophyta_de_Bosnie-Herz%C3%A9govine</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Gymnosperme</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>A
-J
-P</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_de_Tracheophyta_de_Bosnie-Herz%C3%A9govine</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_Tracheophyta_de_Bosnie-Herz%C3%A9govine</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Cvjetnice</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A
-B
-C
-D
-E
-F
-G
-H
-I
-J
-K
-L
-M
-N
-O
-P
-Q
-R
-S
-T
-U
-V
-W
-X
-Y
-Z
-Fichier
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fichier
 </t>
         </is>
       </c>
